--- a/冒险者小镇.xlsx
+++ b/冒险者小镇.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="建筑" sheetId="1" r:id="rId1"/>
-    <sheet name="地图" sheetId="2" r:id="rId2"/>
-    <sheet name="区域" sheetId="3" r:id="rId3"/>
-    <sheet name="任务" sheetId="4" r:id="rId4"/>
-    <sheet name="冒险职业" sheetId="5" r:id="rId5"/>
-    <sheet name="装备" sheetId="6" r:id="rId6"/>
-    <sheet name="怪物" sheetId="7" r:id="rId7"/>
-    <sheet name="属性" sheetId="8" r:id="rId8"/>
-    <sheet name="消费品" sheetId="9" r:id="rId9"/>
+    <sheet name="人物属性" sheetId="10" r:id="rId2"/>
+    <sheet name="地图" sheetId="2" r:id="rId3"/>
+    <sheet name="区域" sheetId="3" r:id="rId4"/>
+    <sheet name="任务" sheetId="4" r:id="rId5"/>
+    <sheet name="冒险职业" sheetId="5" r:id="rId6"/>
+    <sheet name="装备" sheetId="6" r:id="rId7"/>
+    <sheet name="怪物" sheetId="7" r:id="rId8"/>
+    <sheet name="属性" sheetId="8" r:id="rId9"/>
+    <sheet name="消费品" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="122">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发布任务的场所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>售卖酒类,提供休息产所</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,6 +305,214 @@
   </si>
   <si>
     <t>魔瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布任务的场所,收集材料场所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空闲目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的地目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVE_ENEMY/FIGHT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVE_EVENT/EVENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACT_START/ATTACT/ATTACT_END/ATTACT_MOVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态机(state_)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级状态机(status_)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDLE/SLEEP/REPAIR/TRAINNING/PURCHASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空闲状态可以接任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoe_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饰品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessories_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defence_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dodge_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激励1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激励2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激励3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激励4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激励5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激励6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激励7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奋斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有道具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -351,8 +556,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -755,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -789,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
@@ -797,13 +1003,13 @@
         <v>10010</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
@@ -811,13 +1017,13 @@
         <v>10020</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
@@ -825,13 +1031,13 @@
         <v>10030</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
@@ -839,13 +1045,13 @@
         <v>10040</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
@@ -853,13 +1059,13 @@
         <v>10050</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -869,7 +1075,327 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>80000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>80010</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>80020</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="42.875" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="1"/>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="1"/>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="1"/>
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="1"/>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E5"/>
   <sheetViews>
@@ -912,10 +1438,10 @@
         <v>20010</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
@@ -923,10 +1449,10 @@
         <v>20020</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -935,7 +1461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E5"/>
   <sheetViews>
@@ -968,10 +1494,10 @@
         <v>30000</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -982,13 +1508,13 @@
         <v>30010</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
@@ -996,13 +1522,13 @@
         <v>30020</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G6"/>
   <sheetViews>
@@ -1032,13 +1558,13 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
@@ -1046,13 +1572,13 @@
         <v>40000</v>
       </c>
       <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
@@ -1060,13 +1586,13 @@
         <v>40010</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
@@ -1074,13 +1600,13 @@
         <v>40020</v>
       </c>
       <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
@@ -1088,10 +1614,10 @@
         <v>40030</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +1626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C6"/>
   <sheetViews>
@@ -1123,7 +1649,7 @@
         <v>50000</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
@@ -1131,7 +1657,7 @@
         <v>50010</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">
@@ -1139,7 +1665,7 @@
         <v>50020</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
@@ -1147,7 +1673,7 @@
         <v>50030</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1156,7 +1682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D5"/>
   <sheetViews>
@@ -1168,13 +1694,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
@@ -1182,10 +1708,10 @@
         <v>60000</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
@@ -1193,10 +1719,10 @@
         <v>60010</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
@@ -1204,10 +1730,10 @@
         <v>60020</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1216,7 +1742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F5"/>
   <sheetViews>
@@ -1234,13 +1760,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>64</v>
-      </c>
-      <c r="F2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
@@ -1248,7 +1774,7 @@
         <v>70000</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -1265,7 +1791,7 @@
         <v>70010</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -1282,7 +1808,7 @@
         <v>70020</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -1300,7 +1826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1313,52 +1839,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B3">
-        <v>80000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B4">
-        <v>80010</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B5">
-        <v>80020</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>